--- a/project[C]/project[C]/map3.xlsx
+++ b/project[C]/project[C]/map3.xlsx
@@ -87,7 +87,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="245">
+  <dxfs count="228">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -171,35 +178,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -213,143 +220,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF990000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC00CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF990000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -364,20 +235,6 @@
       <fill>
         <patternFill patternType="lightVertical">
           <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightVertical">
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -516,70 +373,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF99FF"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -596,45 +397,112 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color rgb="FF0000CC"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF0000CC"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC3300"/>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1963,199 +1831,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 1"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6368143" y="17068800"/>
-          <a:ext cx="615042" cy="1872343"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9342664" y="17082407"/>
-          <a:ext cx="2109107" cy="2928257"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>122465</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2008415" y="19667764"/>
-          <a:ext cx="1676400" cy="1249136"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1548493" y="19626943"/>
-          <a:ext cx="1771650" cy="1412421"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2424,7 +2099,7 @@
   <dimension ref="A1:BM92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,59 +2308,59 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -2702,8 +2377,8 @@
       <c r="X2" s="3">
         <v>1</v>
       </c>
-      <c r="Y2" s="3">
-        <v>0</v>
+      <c r="Y2" s="1">
+        <v>1</v>
       </c>
       <c r="Z2" s="3">
         <v>0</v>
@@ -2715,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="AC2" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD2" s="3">
         <v>1</v>
       </c>
       <c r="AE2" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AF2" s="3">
         <v>0</v>
@@ -2763,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AT2" s="3">
         <v>0</v>
@@ -2774,53 +2449,53 @@
       <c r="AV2" s="3">
         <v>1</v>
       </c>
-      <c r="AW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>0</v>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>1</v>
       </c>
       <c r="BD2" s="1">
         <v>1</v>
       </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>0</v>
+      <c r="BE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
       </c>
       <c r="BM2" s="1">
         <v>1</v>
@@ -2830,59 +2505,59 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
       </c>
       <c r="T3" s="1">
         <v>1</v>
@@ -2899,8 +2574,8 @@
       <c r="X3" s="3">
         <v>1</v>
       </c>
-      <c r="Y3" s="3">
-        <v>0</v>
+      <c r="Y3" s="1">
+        <v>1</v>
       </c>
       <c r="Z3" s="3">
         <v>0</v>
@@ -3027,59 +2702,59 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>3</v>
-      </c>
-      <c r="R4" s="3">
-        <v>6</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
       </c>
       <c r="T4" s="1">
         <v>1</v>
@@ -3142,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="AN4" s="3">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AO4" s="3">
         <v>0</v>
@@ -3157,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="3">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AT4" s="3">
         <v>0</v>
@@ -3202,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="BH4" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="3">
         <v>0</v>
@@ -3254,29 +2929,29 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>3</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
       </c>
       <c r="T5" s="1">
         <v>1</v>
@@ -3405,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="BJ5" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BK5" s="3">
         <v>0</v>
@@ -3470,12 +3145,12 @@
         <v>1</v>
       </c>
       <c r="R6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
         <v>1</v>
       </c>
       <c r="U6" s="1">
@@ -3608,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="BL6" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1">
         <v>1</v>
@@ -3637,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -3667,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="3">
         <v>0</v>
@@ -3805,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BM7" s="1">
         <v>1</v>
@@ -4002,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="BL8" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BM8" s="1">
         <v>1</v>
@@ -4181,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="BF9" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG9" s="3">
         <v>0</v>
@@ -4209,17 +3884,17 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -4384,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="BH10" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="3">
         <v>0</v>
@@ -4406,17 +4081,17 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -4443,23 +4118,23 @@
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
         <v>6</v>
       </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
@@ -4593,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM11" s="1">
         <v>1</v>
@@ -4603,17 +4278,17 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -4721,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP12" s="1">
         <v>1</v>
@@ -4768,29 +4443,29 @@
       <c r="BD12" s="1">
         <v>1</v>
       </c>
-      <c r="BE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="3">
-        <v>0</v>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>1</v>
       </c>
       <c r="BM12" s="1">
         <v>1</v>
@@ -4891,25 +4566,25 @@
         <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK13" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="AM13" s="1">
         <v>1</v>
@@ -4939,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="AV13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="3">
         <v>0</v>
@@ -4948,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AY13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="1">
         <v>1</v>
@@ -4998,25 +4673,25 @@
         <v>1</v>
       </c>
       <c r="B14" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
-        <v>1</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -5024,50 +4699,50 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
-        <v>11</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
       </c>
       <c r="M14" s="1">
         <v>1</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
       </c>
       <c r="S14" s="1">
         <v>1</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
       </c>
       <c r="Z14" s="1">
         <v>1</v>
@@ -5195,28 +4870,28 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -5225,46 +4900,46 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
       </c>
       <c r="S15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
         <v>1</v>
@@ -5398,10 +5073,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
@@ -5419,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L16" s="3">
         <v>0</v>
@@ -5530,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="AV16" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW16" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AX16" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AY16" s="3">
         <v>0</v>
@@ -5551,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="BC16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>1</v>
@@ -5568,17 +5243,17 @@
       <c r="BH16" s="1">
         <v>1</v>
       </c>
-      <c r="BI16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK16" s="1">
-        <v>1</v>
+      <c r="BI16" s="3">
+        <v>5</v>
+      </c>
+      <c r="BJ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>0</v>
       </c>
       <c r="BL16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="1">
         <v>1</v>
@@ -5589,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -5607,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -5682,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="AG17" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH17" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="3">
         <v>0</v>
@@ -5724,19 +5399,19 @@
         <v>0</v>
       </c>
       <c r="AU17" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AV17" s="3">
         <v>0</v>
       </c>
       <c r="AW17" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="3">
         <v>0</v>
       </c>
       <c r="AY17" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ17" s="3">
         <v>0</v>
@@ -5765,17 +5440,17 @@
       <c r="BH17" s="1">
         <v>1</v>
       </c>
-      <c r="BI17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK17" s="1">
-        <v>1</v>
+      <c r="BI17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="3">
+        <v>1</v>
+      </c>
+      <c r="BK17" s="3">
+        <v>0</v>
       </c>
       <c r="BL17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM17" s="1">
         <v>1</v>
@@ -5789,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -5918,25 +5593,25 @@
         <v>0</v>
       </c>
       <c r="AT18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="3">
         <v>13</v>
       </c>
-      <c r="AU18" s="3">
-        <v>1</v>
-      </c>
       <c r="AV18" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="3">
         <v>6</v>
       </c>
       <c r="AX18" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ18" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="3">
         <v>0</v>
@@ -5968,11 +5643,11 @@
       <c r="BJ18" s="1">
         <v>1</v>
       </c>
-      <c r="BK18" s="1">
-        <v>1</v>
+      <c r="BK18" s="3">
+        <v>0</v>
       </c>
       <c r="BL18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="1">
         <v>1</v>
@@ -5995,16 +5670,16 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -6019,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
@@ -6064,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD19" s="3">
         <v>0</v>
@@ -6109,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS19" s="3">
         <v>0</v>
@@ -6118,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AV19" s="3">
         <v>6</v>
@@ -6130,7 +5805,7 @@
         <v>6</v>
       </c>
       <c r="AY19" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ19" s="3">
         <v>0</v>
@@ -6145,31 +5820,31 @@
         <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>21</v>
-      </c>
-      <c r="BE19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH19" s="3">
-        <v>10</v>
-      </c>
-      <c r="BI19" s="3">
-        <v>10</v>
-      </c>
-      <c r="BJ19" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>1</v>
       </c>
       <c r="BK19" s="3">
         <v>0</v>
       </c>
       <c r="BL19" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BM19" s="1">
         <v>1</v>
@@ -6180,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3">
         <v>0</v>
@@ -6189,19 +5864,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -6312,25 +5987,25 @@
         <v>0</v>
       </c>
       <c r="AT20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="3">
         <v>13</v>
       </c>
-      <c r="AU20" s="3">
-        <v>1</v>
-      </c>
       <c r="AV20" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="3">
         <v>6</v>
       </c>
       <c r="AX20" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ20" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="3">
         <v>0</v>
@@ -6342,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE20" s="3">
         <v>0</v>
@@ -6357,7 +6032,7 @@
         <v>10</v>
       </c>
       <c r="BI20" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BJ20" s="3">
         <v>0</v>
@@ -6366,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="1">
         <v>1</v>
@@ -6512,19 +6187,19 @@
         <v>0</v>
       </c>
       <c r="AU21" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AV21" s="3">
         <v>0</v>
       </c>
       <c r="AW21" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="3">
         <v>0</v>
       </c>
       <c r="AY21" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AZ21" s="3">
         <v>0</v>
@@ -6539,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE21" s="3">
         <v>0</v>
@@ -6551,10 +6226,10 @@
         <v>0</v>
       </c>
       <c r="BH21" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="3">
         <v>0</v>
@@ -6563,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="BL21" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BM21" s="1">
         <v>1</v>
@@ -6573,41 +6248,41 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -6636,8 +6311,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="1">
+        <v>1</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -6712,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="AV22" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AW22" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AX22" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AY22" s="3">
         <v>0</v>
@@ -6770,41 +6445,41 @@
       <c r="A23" s="1">
         <v>1</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -6833,8 +6508,8 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
+      <c r="W23" s="1">
+        <v>1</v>
       </c>
       <c r="X23" s="3">
         <v>0</v>
@@ -6967,41 +6642,41 @@
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -7030,14 +6705,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="1">
+        <v>1</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="1">
         <v>1</v>
@@ -7201,28 +6876,28 @@
         <v>1</v>
       </c>
       <c r="N25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1">
         <v>1</v>
@@ -7231,7 +6906,7 @@
         <v>1</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y25" s="1">
         <v>1</v>
@@ -7255,10 +6930,10 @@
         <v>1</v>
       </c>
       <c r="AF25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25" s="3">
         <v>0</v>
@@ -7266,14 +6941,14 @@
       <c r="AI25" s="3">
         <v>0</v>
       </c>
-      <c r="AJ25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>0</v>
+      <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1</v>
       </c>
       <c r="AM25" s="1">
         <v>1</v>
@@ -7350,7 +7025,7 @@
       <c r="BK25" s="1">
         <v>1</v>
       </c>
-      <c r="BL25" s="3">
+      <c r="BL25" s="1">
         <v>1</v>
       </c>
       <c r="BM25" s="1">
@@ -7361,8 +7036,8 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
+      <c r="B26" s="1">
+        <v>1</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
@@ -7388,8 +7063,8 @@
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -7407,13 +7082,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" s="3">
         <v>0</v>
@@ -7442,17 +7117,17 @@
       <c r="AB26" s="1">
         <v>1</v>
       </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0</v>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>1</v>
       </c>
       <c r="AF26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26" s="3">
         <v>0</v>
@@ -7479,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="AO26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP26" s="3">
         <v>0</v>
@@ -7512,43 +7187,43 @@
         <v>1</v>
       </c>
       <c r="AZ26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26" s="1">
         <v>1</v>
@@ -7558,8 +7233,8 @@
       <c r="A27" s="1">
         <v>1</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
+      <c r="B27" s="1">
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
@@ -7585,8 +7260,8 @@
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="1">
-        <v>1</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -7604,13 +7279,13 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T27" s="3">
         <v>0</v>
@@ -7639,14 +7314,14 @@
       <c r="AB27" s="1">
         <v>1</v>
       </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>0</v>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>1</v>
       </c>
       <c r="AF27" s="3">
         <v>0</v>
@@ -7755,8 +7430,8 @@
       <c r="A28" s="1">
         <v>1</v>
       </c>
-      <c r="B28" s="3">
-        <v>0</v>
+      <c r="B28" s="1">
+        <v>1</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
@@ -7810,13 +7485,13 @@
         <v>1</v>
       </c>
       <c r="T28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="3">
         <v>0</v>
@@ -7836,11 +7511,11 @@
       <c r="AB28" s="1">
         <v>1</v>
       </c>
-      <c r="AC28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>0</v>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
       </c>
       <c r="AE28" s="3">
         <v>0</v>
@@ -7852,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="AH28" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="3">
         <v>0</v>
@@ -7882,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="AR28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="3">
         <v>0</v>
@@ -7952,8 +7627,8 @@
       <c r="A29" s="1">
         <v>1</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -7986,16 +7661,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="3">
         <v>1</v>
@@ -8007,13 +7682,13 @@
         <v>1</v>
       </c>
       <c r="T29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -8033,8 +7708,8 @@
       <c r="AB29" s="1">
         <v>1</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="1">
+        <v>1</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -8058,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="3">
         <v>0</v>
@@ -8082,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="AS29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="3">
         <v>0</v>
@@ -8149,8 +7824,8 @@
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="3">
-        <v>0</v>
+      <c r="B30" s="1">
+        <v>1</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -8189,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="3">
         <v>1</v>
@@ -8204,13 +7879,13 @@
         <v>1</v>
       </c>
       <c r="T30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="3">
         <v>0</v>
@@ -8258,10 +7933,10 @@
         <v>3</v>
       </c>
       <c r="AL30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN30" s="3">
         <v>1</v>
@@ -8282,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="AT30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="3">
         <v>0</v>
@@ -8346,8 +8021,8 @@
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
+      <c r="B31" s="1">
+        <v>1</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -8389,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q31" s="3">
         <v>1</v>
@@ -8401,10 +8076,10 @@
         <v>1</v>
       </c>
       <c r="T31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" s="3">
         <v>0</v>
@@ -8449,10 +8124,10 @@
         <v>1</v>
       </c>
       <c r="AJ31" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK31" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL31" s="3">
         <v>3</v>
@@ -8543,8 +8218,8 @@
       <c r="A32" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="3">
-        <v>0</v>
+      <c r="B32" s="1">
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -8589,7 +8264,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>1</v>
@@ -8598,7 +8273,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -8631,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF32" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH32" s="3">
         <v>1</v>
       </c>
       <c r="AI32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="3">
         <v>1</v>
@@ -8740,8 +8415,8 @@
       <c r="A33" s="1">
         <v>1</v>
       </c>
-      <c r="B33" s="3">
-        <v>0</v>
+      <c r="B33" s="1">
+        <v>1</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -8792,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="3">
         <v>0</v>
@@ -8937,32 +8612,32 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="3">
-        <v>0</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -9037,13 +8712,13 @@
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
       </c>
       <c r="AK34" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="3">
         <v>0</v>
@@ -9134,32 +8809,32 @@
       <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="3">
-        <v>0</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -9331,32 +9006,32 @@
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -10335,650 +10010,654 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="244" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="193" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="194" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="195" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="196" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="199" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="200" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="201" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="202" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="203" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="228" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="197" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="227" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="192" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="226" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="191" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="225" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="174" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="175" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="176" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="177" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="181" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="182" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="183" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="184" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="186" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="187" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="189" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="209" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="178" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="208" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="207" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="172" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="206" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="155" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="156" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="157" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="158" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="162" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="163" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="164" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="165" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="166" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="167" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="168" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="169" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="170" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="190" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="159" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="189" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="154" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="188" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="153" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="187" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="136" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="137" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="138" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="139" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="143" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="144" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="145" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="147" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="148" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="149" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="150" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="171" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="140" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="170" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="135" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="169" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="168" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="117" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="118" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="119" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="120" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="124" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="125" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="126" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="127" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="128" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="129" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="130" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="131" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="132" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="152" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="121" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="151" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="116" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="150" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="115" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="149" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="98" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="99" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="100" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="101" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="107" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="108" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="133" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="102" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="132" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="131" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="130" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="79" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="82" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="86" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="87" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="88" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="89" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="90" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="91" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="92" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="94" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="114" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="83" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="113" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="78" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="112" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="77" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="111" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="60" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="62" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="63" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="67" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="68" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="70" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="95" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="94" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="93" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="58" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="22" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:BM39 AQ17:AQ22 A1:AP37">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:BM39 A1:BL37">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+  <conditionalFormatting sqref="A38:BM39 BE18:BM19 A1:BL37">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="13" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
       <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+      <formula>24</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project[C]/project[C]/map3.xlsx
+++ b/project[C]/project[C]/map3.xlsx
@@ -87,7 +87,571 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="228">
+  <dxfs count="304">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC00CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF990000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightVertical">
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FF0000CC"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FF0000CC"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCC3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2098,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC19" sqref="BC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2377,20 +2941,20 @@
       <c r="X2" s="3">
         <v>1</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="3">
         <v>1</v>
       </c>
       <c r="Z2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="3">
         <v>1</v>
@@ -2574,20 +3138,20 @@
       <c r="X3" s="3">
         <v>1</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="3">
         <v>1</v>
       </c>
       <c r="Z3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="3">
         <v>1</v>
@@ -2647,13 +3211,13 @@
         <v>1</v>
       </c>
       <c r="AW3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AZ3" s="3">
         <v>0</v>
@@ -2665,16 +3229,16 @@
         <v>6</v>
       </c>
       <c r="BC3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3" s="1">
         <v>1</v>
       </c>
       <c r="BE3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3" s="3">
         <v>0</v>
@@ -2689,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="BK3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3" s="1">
         <v>1</v>
@@ -2772,22 +3336,22 @@
         <v>1</v>
       </c>
       <c r="Y4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="3">
         <v>1</v>
@@ -2844,10 +3408,10 @@
         <v>1</v>
       </c>
       <c r="AW4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="3">
         <v>0</v>
@@ -2868,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="BE4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="3">
         <v>0</v>
@@ -2889,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="BL4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4" s="1">
         <v>1</v>
@@ -2900,13 +3464,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -2918,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -2969,22 +3533,22 @@
         <v>1</v>
       </c>
       <c r="Y5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="3">
         <v>1</v>
@@ -3041,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="AW5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="3">
         <v>0</v>
@@ -3097,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -3118,25 +3682,25 @@
         <v>0</v>
       </c>
       <c r="I6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="3">
         <v>1</v>
@@ -3166,22 +3730,22 @@
         <v>1</v>
       </c>
       <c r="Y6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3">
         <v>1</v>
@@ -3318,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -3363,22 +3927,22 @@
         <v>1</v>
       </c>
       <c r="Y7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="3">
         <v>1</v>
@@ -3417,10 +3981,10 @@
         <v>1</v>
       </c>
       <c r="AQ7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="3">
         <v>0</v>
@@ -3444,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="3">
         <v>6</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>0</v>
       </c>
       <c r="BB7" s="3">
         <v>0</v>
@@ -3515,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -3533,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>1</v>
@@ -3560,22 +4124,22 @@
         <v>1</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="3">
         <v>1</v>
@@ -3614,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="3">
         <v>0</v>
@@ -3757,22 +4321,22 @@
         <v>1</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="3">
         <v>1</v>
@@ -3887,14 +4451,14 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -4050,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="BE10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10" s="3">
         <v>0</v>
@@ -4090,8 +4654,8 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
+      <c r="E11" s="3">
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -4205,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="AQ11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="3">
         <v>0</v>
@@ -4247,10 +4811,10 @@
         <v>1</v>
       </c>
       <c r="BE11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG11" s="3">
         <v>0</v>
@@ -4291,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -4402,10 +4966,10 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="3">
         <v>0</v>
@@ -4429,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA12" s="3">
         <v>0</v>
@@ -4438,7 +5002,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="1">
         <v>1</v>
@@ -4679,7 +5243,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -4697,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -4751,10 +5315,10 @@
         <v>1</v>
       </c>
       <c r="AB14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
@@ -4829,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="BB14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD14" s="1">
         <v>1</v>
@@ -4948,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -5029,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="BC15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD15" s="1">
         <v>1</v>
@@ -5102,41 +5666,41 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
       </c>
       <c r="S16" s="1">
         <v>1</v>
       </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1</v>
       </c>
       <c r="Z16" s="1">
         <v>1</v>
@@ -5299,41 +5863,41 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
       </c>
       <c r="S17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
         <v>1</v>
@@ -5497,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -5509,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1">
         <v>1</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -5527,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
         <v>1</v>
@@ -5602,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="AW18" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="3">
         <v>0</v>
@@ -6285,7 +6849,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -6482,10 +7046,10 @@
         <v>1</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -6503,10 +7067,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="1">
         <v>1</v>
@@ -6524,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="3">
         <v>0</v>
@@ -6563,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="AO23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP23" s="1">
         <v>1</v>
       </c>
       <c r="AQ23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="3">
         <v>0</v>
@@ -6605,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD23" s="1">
         <v>1</v>
@@ -6679,13 +7243,13 @@
         <v>1</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -6694,16 +7258,16 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24" s="1">
         <v>1</v>
@@ -6721,10 +7285,10 @@
         <v>1</v>
       </c>
       <c r="AB24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
@@ -6757,19 +7321,19 @@
         <v>0</v>
       </c>
       <c r="AN24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP24" s="1">
         <v>1</v>
       </c>
       <c r="AQ24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="3">
         <v>0</v>
@@ -6799,10 +7363,10 @@
         <v>0</v>
       </c>
       <c r="BB24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="1">
         <v>1</v>
@@ -7040,13 +7604,13 @@
         <v>1</v>
       </c>
       <c r="C26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -7153,15 +7717,15 @@
       <c r="AN26" s="3">
         <v>1</v>
       </c>
-      <c r="AO26" s="3">
+      <c r="AO26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="3">
         <v>2</v>
       </c>
-      <c r="AP26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>0</v>
-      </c>
       <c r="AR26" s="3">
         <v>0</v>
       </c>
@@ -7172,16 +7736,16 @@
         <v>0</v>
       </c>
       <c r="AU26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="3">
         <v>1</v>
@@ -7237,10 +7801,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -7350,11 +7914,11 @@
       <c r="AN27" s="3">
         <v>1</v>
       </c>
-      <c r="AO27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>0</v>
+      <c r="AO27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>1</v>
       </c>
       <c r="AQ27" s="3">
         <v>0</v>
@@ -7372,13 +7936,13 @@
         <v>0</v>
       </c>
       <c r="AV27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="3">
         <v>1</v>
@@ -7434,10 +7998,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -7572,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="AW28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="3">
         <v>1</v>
@@ -7631,7 +8195,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -7745,7 +8309,7 @@
         <v>1</v>
       </c>
       <c r="AO29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29" s="3">
         <v>0</v>
@@ -7772,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="AX29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY29" s="3">
         <v>1</v>
@@ -7828,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
@@ -7942,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="AO30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30" s="3">
         <v>0</v>
@@ -8025,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
@@ -8222,10 +8786,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -8419,13 +8983,13 @@
         <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -8679,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="X34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" s="1">
         <v>1</v>
@@ -8694,7 +9258,7 @@
         <v>1</v>
       </c>
       <c r="AC34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="3">
         <v>0</v>
@@ -8730,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP34" s="3">
         <v>1</v>
@@ -8840,10 +9404,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -8873,10 +9437,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35" s="1">
         <v>1</v>
@@ -8891,10 +9455,10 @@
         <v>1</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="3">
         <v>0</v>
@@ -8924,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="AN35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35" s="3">
         <v>1</v>
@@ -9037,22 +9601,22 @@
         <v>1</v>
       </c>
       <c r="L36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -9067,13 +9631,13 @@
         <v>0</v>
       </c>
       <c r="V36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36" s="1">
         <v>1</v>
@@ -9088,13 +9652,13 @@
         <v>1</v>
       </c>
       <c r="AC36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36" s="3">
         <v>0</v>
@@ -9115,22 +9679,22 @@
         <v>0</v>
       </c>
       <c r="AL36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36" s="3">
         <v>1</v>
       </c>
       <c r="AQ36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR36" s="3">
         <v>0</v>
@@ -10010,650 +10574,650 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="227" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="193" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="194" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="195" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="196" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="198" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="199" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="200" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="201" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="202" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="203" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="204" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="205" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="206" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="207" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="208" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="209" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="211" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="197" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="210" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="192" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:BM82">
-    <cfRule type="cellIs" dxfId="209" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="191" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="208" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="174" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="175" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="176" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="177" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="179" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="181" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="182" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="183" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="184" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="185" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="186" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="187" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="189" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="192" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="178" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="173" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44:A48 A43:T43 A49:Q49">
-    <cfRule type="cellIs" dxfId="190" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="172" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="189" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="155" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="156" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="157" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="158" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="162" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="163" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="164" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="165" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="166" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="167" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="168" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="169" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="170" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="173" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="159" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="172" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="154" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W90:AA94">
-    <cfRule type="cellIs" dxfId="171" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="153" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="170" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="136" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="137" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="138" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="139" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="141" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="142" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="143" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="144" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="145" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="146" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="147" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="148" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="149" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="150" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="151" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="154" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="140" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="153" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="135" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN90:AU94">
-    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="134" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="151" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="117" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="118" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="119" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="120" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="123" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="124" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="125" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="126" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="127" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="128" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="129" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="130" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="131" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="132" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="135" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="121" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="134" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="116" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:F48">
-    <cfRule type="cellIs" dxfId="133" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="115" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="132" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="98" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="99" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="100" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="101" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="105" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="106" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="107" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="108" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="109" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="110" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="111" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="112" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="116" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="102" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="115" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="97" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:O48">
-    <cfRule type="cellIs" dxfId="114" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="96" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="113" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="79" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="80" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="81" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="82" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="84" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="86" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="87" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="88" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="89" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="90" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="91" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="92" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="93" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="94" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="97" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="83" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="96" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="78" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:T49">
-    <cfRule type="cellIs" dxfId="95" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="77" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="94" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="60" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="61" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="62" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="63" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="67" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="68" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="69" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="70" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="71" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="72" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="73" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="74" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="75" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="78" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="64" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="77" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="59" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:S48 R49:S49">
-    <cfRule type="cellIs" dxfId="76" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="58" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="75" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="22" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="23" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="24" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="25" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="28" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="29" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="30" operator="equal">
       <formula>9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="31" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="32" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="33" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="34" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="35" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="26" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:BM39 AQ17:AQ22 A1:AP37">
-    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="21" operator="equal">
       <formula>15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:BM39 BE18:BM19 A1:BL37">
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="20" operator="equal">
       <formula>16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="56" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="13" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="14" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="15" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="16" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="17" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="18" operator="equal">
       <formula>12</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="19" operator="equal">
       <formula>11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:BM39">
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="2" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="3" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="4" operator="equal">
       <formula>19</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="5" operator="equal">
       <formula>15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="6" operator="equal">
       <formula>14</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="7" operator="equal">
       <formula>18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="8" operator="equal">
       <formula>17</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="9" operator="equal">
       <formula>16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="12" operator="equal">
       <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="equal">
       <formula>24</formula>
     </cfRule>
   </conditionalFormatting>
